--- a/ClientInformationRequests/ProjTracking/AD_ProjectTracking.xlsx
+++ b/ClientInformationRequests/ProjTracking/AD_ProjectTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AWALKER\source\repos\Projects\ClientInformationProjMgt\ProjTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF2957-EAAD-41F6-943D-21AF149D679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFFC71A-EAAC-4AEC-9547-D6A1701A92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2270" yWindow="620" windowWidth="14400" windowHeight="8370" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17410" yWindow="1220" windowWidth="18190" windowHeight="8510" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dev't Tracking" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>DAY</t>
   </si>
@@ -645,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U128"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,219 +659,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
-        <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
-      </c>
-      <c r="B1" s="4">
-        <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6"/>
       <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <f ca="1">NOW()</f>
+        <v>44886.58001273148</v>
+      </c>
+      <c r="B2" s="4">
+        <f ca="1">NOW()</f>
+        <v>44886.58001273148</v>
+      </c>
       <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="4"/>
-      <c r="L3" s="10" t="s">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C4" s="4"/>
+      <c r="L4" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L4" s="10" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="12" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="12"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L8" s="12"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L9" s="12"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>44824.651737499997</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44824.604166666664</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44824.651737499997</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12" si="0">HOUR(C12-B12)</f>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12" si="1">MINUTE(C12-B12)</f>
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>44771.597633217592</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44771.597633217592</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44771.600694444445</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14" si="2">HOUR(C14-B14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14" si="3">MINUTE(C14-B14)</f>
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
-        <v>44771.600694444445</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44771.621527777781</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15" si="4">HOUR(C15-B15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ref="E15" si="5">MINUTE(C15-B15)</f>
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
-        <v>44771.621527777781</v>
-      </c>
-      <c r="C16" s="4">
-        <v>44771.65625</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="6">HOUR(C16-B16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16" si="7">MINUTE(C16-B16)</f>
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C17" s="4">
-        <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
@@ -885,87 +759,208 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C22" s="4"/>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>44824.651737499997</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44824.604166666664</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44824.651737499997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="0">HOUR(C24-B24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="1">MINUTE(C24-B24)</f>
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>44771.597633217592</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44771.597633217592</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44771.600694444445</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26" si="2">HOUR(C26-B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="3">MINUTE(C26-B26)</f>
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>44771.600694444445</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44771.621527777781</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="4">HOUR(C27-B27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="5">MINUTE(C27-B27)</f>
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>44771.621527777781</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44771.65625</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="6">HOUR(C28-B28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="7">MINUTE(C28-B28)</f>
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C29" s="4">
+        <f ca="1">NOW()</f>
+        <v>44886.58001273148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>44770.572178240742</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>44770.569444444445</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>44770.573155092592</v>
       </c>
-      <c r="D30">
-        <f t="shared" ref="D30" si="8">HOUR(C30-B30)</f>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ref="E30" si="9">MINUTE(C30-B30)</f>
+      <c r="D31">
+        <f t="shared" ref="D31" si="8">HOUR(C31-B31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="9">MINUTE(C31-B31)</f>
         <v>5</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
-        <v>44770.573155092592</v>
-      </c>
-      <c r="C31" s="4">
-        <v>44770.583333333336</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31" si="10">HOUR(C31-B31)</f>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31" si="11">MINUTE(C31-B31)</f>
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
-        <v>44770.590277777781</v>
+        <v>44770.573155092592</v>
       </c>
       <c r="C32" s="4">
-        <v>44770.652777777781</v>
+        <v>44770.583333333336</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32" si="12">HOUR(C32-B32)</f>
-        <v>1</v>
+        <f t="shared" ref="D32" si="10">HOUR(C32-B32)</f>
+        <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="13">MINUTE(C32-B32)</f>
-        <v>30</v>
+        <f t="shared" ref="E32" si="11">MINUTE(C32-B32)</f>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>65</v>
@@ -974,398 +969,395 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>44770.590277777781</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44770.652777777781</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="12">HOUR(C33-B33)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="13">MINUTE(C33-B33)</f>
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>44769.533877430556</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <v>44769.53125</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>44769.534722222219</v>
       </c>
-      <c r="D34">
-        <f t="shared" ref="D34" si="14">HOUR(C34-B34)</f>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ref="E34" si="15">MINUTE(C34-B34)</f>
+      <c r="D35">
+        <f t="shared" ref="D35" si="14">HOUR(C35-B35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="15">MINUTE(C35-B35)</f>
         <v>5</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
         <v>44769.576388888891</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="4">
         <v>44769.652777777781</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35" si="16">HOUR(C35-B35)</f>
+      <c r="D36">
+        <f t="shared" ref="D36" si="16">HOUR(C36-B36)</f>
         <v>1</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35" si="17">MINUTE(C35-B35)</f>
+      <c r="E36">
+        <f t="shared" ref="E36" si="17">MINUTE(C36-B36)</f>
         <v>50</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>65</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="37" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>44768.641604976852</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4">
         <v>44768.635416666664</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C38" s="4">
         <v>44768.638888888891</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D38" si="18">HOUR(C37-B37)</f>
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ref="E37:E38" si="19">MINUTE(C37-B37)</f>
+      <c r="D38">
+        <f t="shared" ref="D38:D39" si="18">HOUR(C38-B38)</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E39" si="19">MINUTE(C38-B38)</f>
         <v>5</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B39" s="4">
         <v>44768.638888888891</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C39" s="4">
         <v>44768.656858449074</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>44767.586849884261</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>44767.565972222219</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="4">
         <v>44767.569444444445</v>
       </c>
-      <c r="D40">
-        <f t="shared" ref="D40:D41" si="20">HOUR(C40-B40)</f>
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ref="E40:E41" si="21">MINUTE(C40-B40)</f>
+      <c r="D41">
+        <f t="shared" ref="D41:D42" si="20">HOUR(C41-B41)</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E42" si="21">MINUTE(C41-B41)</f>
         <v>5</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B41" s="4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B42" s="4">
         <v>44767.569444444445</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="4">
         <v>44767.607638888891</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="21"/>
         <v>55</v>
       </c>
-      <c r="G41" t="s">
-        <v>65</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B42" s="4">
-        <v>44767.607638888891</v>
-      </c>
-      <c r="C42" s="4">
-        <v>44767.64647777778</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42" si="22">HOUR(C42-B42)</f>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ref="E42" si="23">MINUTE(C42-B42)</f>
-        <v>55</v>
-      </c>
       <c r="G42" t="s">
         <v>65</v>
       </c>
       <c r="L42" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B43" s="4">
+        <v>44767.607638888891</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44767.64647777778</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">HOUR(C43-B43)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">MINUTE(C43-B43)</f>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>44764.352484490744</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>44764.34375</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C45" s="4">
         <v>44764.347222222219</v>
       </c>
-      <c r="D44">
-        <f t="shared" ref="D44" si="24">HOUR(C44-B44)</f>
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ref="E44" si="25">MINUTE(C44-B44)</f>
+      <c r="D45">
+        <f t="shared" ref="D45" si="24">HOUR(C45-B45)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="25">MINUTE(C45-B45)</f>
         <v>5</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B45" s="4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B46" s="4">
         <v>44764.347222222219</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C46" s="4">
         <v>44764.5</v>
       </c>
-      <c r="D45">
-        <f t="shared" ref="D45" si="26">HOUR(C45-B45)</f>
+      <c r="D46">
+        <f t="shared" ref="D46" si="26">HOUR(C46-B46)</f>
         <v>3</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45" si="27">MINUTE(C45-B45)</f>
+      <c r="E46">
+        <f t="shared" ref="E46" si="27">MINUTE(C46-B46)</f>
         <v>40</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>65</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="47" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>44763.461203125</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B48" s="4">
         <v>44763.458333333336</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C48" s="4">
         <v>44763.461805555555</v>
       </c>
-      <c r="D47">
-        <f t="shared" ref="D47" si="28">HOUR(C47-B47)</f>
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ref="E47" si="29">MINUTE(C47-B47)</f>
+      <c r="D48">
+        <f t="shared" ref="D48" si="28">HOUR(C48-B48)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="29">MINUTE(C48-B48)</f>
         <v>5</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B48" s="4">
-        <v>44763.461805555555</v>
-      </c>
-      <c r="C48" s="4">
-        <v>44763.475694444445</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ref="D48" si="30">HOUR(C48-B48)</f>
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ref="E48" si="31">MINUTE(C48-B48)</f>
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B49" s="4">
+        <v>44763.461805555555</v>
+      </c>
+      <c r="C49" s="4">
         <v>44763.475694444445</v>
       </c>
-      <c r="C49" s="4">
-        <v>44763.479187384262</v>
-      </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="32">HOUR(C49-B49)</f>
+        <f t="shared" ref="D49" si="30">HOUR(C49-B49)</f>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="33">MINUTE(C49-B49)</f>
-        <v>5</v>
+        <f t="shared" ref="E49" si="31">MINUTE(C49-B49)</f>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>60</v>
@@ -1373,24 +1365,24 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B50" s="4">
-        <v>44763.479166666664</v>
+        <v>44763.475694444445</v>
       </c>
       <c r="C50" s="4">
-        <v>44763.500272337966</v>
+        <v>44763.479187384262</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50" si="34">HOUR(C50-B50)</f>
+        <f t="shared" ref="D50" si="32">HOUR(C50-B50)</f>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50" si="35">MINUTE(C50-B50)</f>
-        <v>30</v>
+        <f t="shared" ref="E50" si="33">MINUTE(C50-B50)</f>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>60</v>
@@ -1398,18 +1390,18 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B51" s="4">
-        <v>44763.559027777781</v>
+        <v>44763.479166666664</v>
       </c>
       <c r="C51" s="4">
-        <v>44763.576388888891</v>
+        <v>44763.500272337966</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51" si="36">HOUR(C51-B51)</f>
+        <f t="shared" ref="D51" si="34">HOUR(C51-B51)</f>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51" si="37">MINUTE(C51-B51)</f>
-        <v>25</v>
+        <f t="shared" ref="E51" si="35">MINUTE(C51-B51)</f>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>43</v>
@@ -1423,132 +1415,132 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B52" s="4">
+        <v>44763.559027777781</v>
+      </c>
+      <c r="C52" s="4">
         <v>44763.576388888891</v>
       </c>
-      <c r="C52" s="4">
-        <v>44763.586805555555</v>
-      </c>
       <c r="D52">
-        <f t="shared" ref="D52" si="38">HOUR(C52-B52)</f>
+        <f t="shared" ref="D52" si="36">HOUR(C52-B52)</f>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" si="39">MINUTE(C52-B52)</f>
-        <v>15</v>
+        <f t="shared" ref="E52" si="37">MINUTE(C52-B52)</f>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
         <v>43</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B53" s="4">
+        <v>44763.576388888891</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44763.586805555555</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53" si="38">HOUR(C53-B53)</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="39">MINUTE(C53-B53)</f>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B54" s="4">
         <v>44763.618055555555</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C54" s="4">
         <v>44763.645833333336</v>
       </c>
-      <c r="D53">
-        <f t="shared" ref="D53" si="40">HOUR(C53-B53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ref="E53" si="41">MINUTE(C53-B53)</f>
+      <c r="D54">
+        <f t="shared" ref="D54" si="40">HOUR(C54-B54)</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54" si="41">MINUTE(C54-B54)</f>
         <v>40</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+    <row r="55" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>44762.344832870367</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>44762.34375</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C56" s="4">
         <v>44762.350694444445</v>
       </c>
-      <c r="D55">
-        <f t="shared" ref="D55" si="42">HOUR(C55-B55)</f>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ref="E55" si="43">MINUTE(C55-B55)</f>
+      <c r="D56">
+        <f t="shared" ref="D56" si="42">HOUR(C56-B56)</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56" si="43">MINUTE(C56-B56)</f>
         <v>10</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B56" s="4">
-        <v>44762.440972222219</v>
-      </c>
-      <c r="C56" s="4">
-        <v>44762.479166666664</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ref="D56" si="44">HOUR(C56-B56)</f>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ref="E56" si="45">MINUTE(C56-B56)</f>
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B57" s="4">
-        <v>44762.520833333336</v>
+        <v>44762.440972222219</v>
       </c>
       <c r="C57" s="4">
-        <v>44762.538194444445</v>
+        <v>44762.479166666664</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57" si="46">HOUR(C57-B57)</f>
+        <f t="shared" ref="D57" si="44">HOUR(C57-B57)</f>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57" si="47">MINUTE(C57-B57)</f>
-        <v>25</v>
+        <f t="shared" ref="E57" si="45">MINUTE(C57-B57)</f>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
         <v>43</v>
@@ -1562,419 +1554,422 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B58" s="4">
+        <v>44762.520833333336</v>
+      </c>
+      <c r="C58" s="4">
         <v>44762.538194444445</v>
       </c>
-      <c r="C58" s="4">
-        <v>44762.541666666664</v>
-      </c>
       <c r="D58">
-        <f t="shared" ref="D58" si="48">HOUR(C58-B58)</f>
+        <f t="shared" ref="D58" si="46">HOUR(C58-B58)</f>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58" si="49">MINUTE(C58-B58)</f>
-        <v>5</v>
+        <f t="shared" ref="E58" si="47">MINUTE(C58-B58)</f>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="L58" s="11" t="s">
         <v>55</v>
       </c>
       <c r="P58" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B59" s="4">
+        <v>44762.538194444445</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44762.541666666664</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59" si="48">HOUR(C59-B59)</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59" si="49">MINUTE(C59-B59)</f>
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P59" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+    <row r="60" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>44761.537678819448</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>44761.53125</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>44761.534722222219</v>
       </c>
-      <c r="D60">
-        <f t="shared" ref="D60:D61" si="50">HOUR(C60-B60)</f>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ref="E60:E61" si="51">MINUTE(C60-B60)</f>
+      <c r="D61">
+        <f t="shared" ref="D61:D62" si="50">HOUR(C61-B61)</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:E62" si="51">MINUTE(C61-B61)</f>
         <v>5</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B61" s="4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B62" s="4">
         <v>44761.534722222219</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C62" s="4">
         <v>44761.621937384261</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <f t="shared" si="50"/>
         <v>2</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>43</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="P62" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+    <row r="63" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>44760.616177662036</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B64" s="4">
         <v>44760.614583333336</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <v>44760.618055555555</v>
       </c>
-      <c r="D63">
-        <f t="shared" ref="D63" si="52">HOUR(C63-B63)</f>
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ref="E63" si="53">MINUTE(C63-B63)</f>
+      <c r="D64">
+        <f t="shared" ref="D64" si="52">HOUR(C64-B64)</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64" si="53">MINUTE(C64-B64)</f>
         <v>5</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B64" s="4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B65" s="4">
         <v>44760.618055555555</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <v>44760.652777777781</v>
       </c>
-      <c r="D64">
-        <f t="shared" ref="D64" si="54">HOUR(C64-B64)</f>
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ref="E64" si="55">MINUTE(C64-B64)</f>
+      <c r="D65">
+        <f t="shared" ref="D65" si="54">HOUR(C65-B65)</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65" si="55">MINUTE(C65-B65)</f>
         <v>50</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L65" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="P65" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+    <row r="66" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
         <v>44756.470901736109</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B67" s="4">
         <v>44756.46875</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <v>44756.472222222219</v>
       </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D67" si="56">HOUR(C66-B66)</f>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E67" si="57">MINUTE(C66-B66)</f>
+      <c r="D67">
+        <f t="shared" ref="D67:D68" si="56">HOUR(C67-B67)</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E68" si="57">MINUTE(C67-B67)</f>
         <v>5</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="P67" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B67" s="4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B68" s="4">
         <v>44756.472222222219</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <v>44756.475694444445</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <f t="shared" si="57"/>
         <v>5</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>59</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="P68" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+    <row r="69" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
         <v>44741.36110613426</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B70" s="4">
         <v>44741.357638888891</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <v>44741.365069444444</v>
       </c>
-      <c r="D69">
-        <f t="shared" ref="D69:D70" si="58">HOUR(C69-B69)</f>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ref="E69:E70" si="59">MINUTE(C69-B69)</f>
+      <c r="D70">
+        <f t="shared" ref="D70:D71" si="58">HOUR(C70-B70)</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:E71" si="59">MINUTE(C70-B70)</f>
         <v>10</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B70" s="4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B71" s="4">
         <v>44741.38224259259</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
-      </c>
-      <c r="D70">
+        <v>44886.58001273148</v>
+      </c>
+      <c r="D71">
         <f t="shared" ca="1" si="58"/>
-        <v>6</v>
-      </c>
-      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="E71">
         <f t="shared" ca="1" si="59"/>
-        <v>46</v>
-      </c>
-      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s">
         <v>57</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="L71" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P71" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+    <row r="72" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
         <v>44740.368838888891</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>44740.364583333336</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <v>44740.371527777781</v>
       </c>
-      <c r="D72">
-        <f t="shared" ref="D72" si="60">HOUR(C72-B72)</f>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ref="E72" si="61">MINUTE(C72-B72)</f>
+      <c r="D73">
+        <f t="shared" ref="D73" si="60">HOUR(C73-B73)</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73" si="61">MINUTE(C73-B73)</f>
         <v>10</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B73" s="4">
-        <v>44740.388888888891</v>
-      </c>
-      <c r="C73" s="4">
-        <v>44740.392361111109</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ref="D73" si="62">HOUR(C73-B73)</f>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ref="E73" si="63">MINUTE(C73-B73)</f>
-        <v>5</v>
-      </c>
-      <c r="G73" t="s">
-        <v>48</v>
-      </c>
-      <c r="L73" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P73" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B74" s="4">
-        <v>44740.402777777781</v>
+        <v>44740.388888888891</v>
       </c>
       <c r="C74" s="4">
-        <v>44740.430555555598</v>
+        <v>44740.392361111109</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74" si="64">HOUR(C74-B74)</f>
+        <f t="shared" ref="D74" si="62">HOUR(C74-B74)</f>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74" si="65">MINUTE(C74-B74)</f>
-        <v>40</v>
+        <f t="shared" ref="E74" si="63">MINUTE(C74-B74)</f>
+        <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L74" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="P74" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B75" s="4">
-        <v>44740.472222222299</v>
+        <v>44740.402777777781</v>
       </c>
       <c r="C75" s="4">
-        <v>44740.496527777781</v>
+        <v>44740.430555555598</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75" si="66">HOUR(C75-B75)</f>
+        <f t="shared" ref="D75" si="64">HOUR(C75-B75)</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75" si="67">MINUTE(C75-B75)</f>
-        <v>35</v>
+        <f t="shared" ref="E75" si="65">MINUTE(C75-B75)</f>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -1985,19 +1980,18 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B76" s="4">
-        <v>44740.572916666664</v>
+        <v>44740.472222222299</v>
       </c>
       <c r="C76" s="4">
-        <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
+        <v>44740.496527777781</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" ca="1" si="68">HOUR(C76-B76)</f>
-        <v>2</v>
+        <f t="shared" ref="D76" si="66">HOUR(C76-B76)</f>
+        <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" ca="1" si="69">MINUTE(C76-B76)</f>
-        <v>12</v>
+        <f t="shared" ref="E76" si="67">MINUTE(C76-B76)</f>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -2006,204 +2000,205 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B77" s="4">
+        <v>44740.572916666664</v>
+      </c>
+      <c r="C77" s="4">
+        <f ca="1">NOW()</f>
+        <v>44886.58001273148</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77" ca="1" si="68">HOUR(C77-B77)</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77" ca="1" si="69">MINUTE(C77-B77)</f>
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
         <v>44736.32773449074</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B79" s="4">
         <v>44736.322916666664</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C79" s="4">
         <v>44736.326388888891</v>
       </c>
-      <c r="D78">
-        <f t="shared" ref="D78" si="70">HOUR(C78-B78)</f>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ref="E78" si="71">MINUTE(C78-B78)</f>
+      <c r="D79">
+        <f t="shared" ref="D79" si="70">HOUR(C79-B79)</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79" si="71">MINUTE(C79-B79)</f>
         <v>5</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B79" s="4">
-        <v>44736.326388888891</v>
-      </c>
-      <c r="C79" s="4">
-        <v>44736.364583333336</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ref="D79:D80" si="72">HOUR(C79-B79)</f>
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ref="E79:E80" si="73">MINUTE(C79-B79)</f>
-        <v>55</v>
-      </c>
-      <c r="G79" t="s">
-        <v>51</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B80" s="4">
+        <v>44736.326388888891</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44736.364583333336</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D81" si="72">HOUR(C80-B80)</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:E81" si="73">MINUTE(C80-B80)</f>
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B81" s="4">
         <v>44736.371527777781</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C81" s="4">
         <v>44736.40625</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <f t="shared" si="73"/>
         <v>50</v>
       </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B81" s="4">
-        <v>44736.579861111109</v>
-      </c>
-      <c r="C81" s="4">
-        <v>44736.631954166667</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ref="D81" si="74">HOUR(C81-B81)</f>
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ref="E81" si="75">MINUTE(C81-B81)</f>
-        <v>15</v>
-      </c>
       <c r="G81" t="s">
         <v>43</v>
       </c>
       <c r="L81" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B82" s="4">
+        <v>44736.579861111109</v>
+      </c>
+      <c r="C82" s="4">
+        <v>44736.631954166667</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82" si="74">HOUR(C82-B82)</f>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82" si="75">MINUTE(C82-B82)</f>
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
+    <row r="83" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
         <v>44735.34174074074</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B84" s="4">
         <v>44735.340277777781</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C84" s="4">
         <v>44735.34375</v>
       </c>
-      <c r="D83">
-        <f t="shared" ref="D83:D84" si="76">HOUR(C83-B83)</f>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ref="E83:E84" si="77">MINUTE(C83-B83)</f>
+      <c r="D84">
+        <f t="shared" ref="D84:D85" si="76">HOUR(C84-B84)</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:E85" si="77">MINUTE(C84-B84)</f>
         <v>5</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B84" s="4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B85" s="4">
         <v>44735.34375</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C85" s="4">
         <v>44735.347222222219</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <f t="shared" si="77"/>
         <v>5</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>48</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B85" s="4">
-        <v>44735.347222222219</v>
-      </c>
-      <c r="C85" s="4">
-        <v>44735.500040856481</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ref="D85" si="78">HOUR(C85-B85)</f>
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ref="E85" si="79">MINUTE(C85-B85)</f>
-        <v>40</v>
-      </c>
-      <c r="G85" t="s">
-        <v>43</v>
       </c>
       <c r="L85" s="11" t="s">
         <v>47</v>
@@ -2211,18 +2206,18 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B86" s="4">
-        <v>44735.565972222219</v>
+        <v>44735.347222222219</v>
       </c>
       <c r="C86" s="4">
-        <v>44735.604166666664</v>
+        <v>44735.500040856481</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86" si="80">HOUR(C86-B86)</f>
-        <v>0</v>
+        <f t="shared" ref="D86" si="78">HOUR(C86-B86)</f>
+        <v>3</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86" si="81">MINUTE(C86-B86)</f>
-        <v>55</v>
+        <f t="shared" ref="E86" si="79">MINUTE(C86-B86)</f>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
         <v>43</v>
@@ -2233,195 +2228,195 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B87" s="4">
+        <v>44735.565972222219</v>
+      </c>
+      <c r="C87" s="4">
         <v>44735.604166666664</v>
       </c>
-      <c r="C87" s="4">
-        <v>44735.649305555555</v>
-      </c>
       <c r="D87">
-        <f t="shared" ref="D87" si="82">HOUR(C87-B87)</f>
-        <v>1</v>
+        <f t="shared" ref="D87" si="80">HOUR(C87-B87)</f>
+        <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" ref="E87" si="83">MINUTE(C87-B87)</f>
-        <v>5</v>
+        <f t="shared" ref="E87" si="81">MINUTE(C87-B87)</f>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
       </c>
       <c r="L87" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B88" s="4">
+        <v>44735.604166666664</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44735.649305555555</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ref="D88" si="82">HOUR(C88-B88)</f>
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ref="E88" si="83">MINUTE(C88-B88)</f>
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="L88" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
+    <row r="89" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
         <v>44734.351645949071</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B90" s="4">
         <v>44734.350694444445</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C90" s="4">
         <v>44734.354166666664</v>
       </c>
-      <c r="D89">
-        <f t="shared" ref="D89" si="84">HOUR(C89-B89)</f>
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ref="E89" si="85">MINUTE(C89-B89)</f>
+      <c r="D90">
+        <f t="shared" ref="D90" si="84">HOUR(C90-B90)</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ref="E90" si="85">MINUTE(C90-B90)</f>
         <v>5</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B90" s="4">
-        <v>44734.354166666664</v>
-      </c>
-      <c r="C90" s="4">
-        <v>44734.357638888891</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ref="D90" si="86">HOUR(C90-B90)</f>
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ref="E90" si="87">MINUTE(C90-B90)</f>
-        <v>5</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
-      <c r="L90" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B91" s="4">
-        <v>44734.364583333336</v>
+        <v>44734.354166666664</v>
       </c>
       <c r="C91" s="4">
-        <v>44734.371527777803</v>
+        <v>44734.357638888891</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="88">HOUR(C91-B91)</f>
+        <f t="shared" ref="D91" si="86">HOUR(C91-B91)</f>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" ref="E91" si="89">MINUTE(C91-B91)</f>
-        <v>10</v>
+        <f t="shared" ref="E91" si="87">MINUTE(C91-B91)</f>
+        <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B92" s="4">
-        <v>44734.392361111109</v>
+        <v>44734.364583333336</v>
       </c>
       <c r="C92" s="4">
-        <v>44734.40625</v>
+        <v>44734.371527777803</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92" si="90">HOUR(C92-B92)</f>
+        <f t="shared" ref="D92" si="88">HOUR(C92-B92)</f>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92" si="91">MINUTE(C92-B92)</f>
-        <v>20</v>
+        <f t="shared" ref="E92" si="89">MINUTE(C92-B92)</f>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
       </c>
-      <c r="L92" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P92" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
+        <v>44734.392361111109</v>
+      </c>
+      <c r="C93" s="4">
         <v>44734.40625</v>
       </c>
-      <c r="C93" s="4">
-        <v>44734.413194444445</v>
-      </c>
       <c r="D93">
-        <f t="shared" ref="D93" si="92">HOUR(C93-B93)</f>
+        <f t="shared" ref="D93" si="90">HOUR(C93-B93)</f>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93" si="93">MINUTE(C93-B93)</f>
-        <v>10</v>
+        <f t="shared" ref="E93" si="91">MINUTE(C93-B93)</f>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="P93" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
+        <v>44734.40625</v>
+      </c>
+      <c r="C94" s="4">
         <v>44734.413194444445</v>
       </c>
-      <c r="C94" s="4">
-        <v>44734.416666666664</v>
-      </c>
       <c r="D94">
-        <f t="shared" ref="D94" si="94">HOUR(C94-B94)</f>
+        <f t="shared" ref="D94" si="92">HOUR(C94-B94)</f>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94" si="95">MINUTE(C94-B94)</f>
-        <v>5</v>
+        <f t="shared" ref="E94" si="93">MINUTE(C94-B94)</f>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
-        <v>44734.46875</v>
+        <v>44734.413194444445</v>
       </c>
       <c r="C95" s="4">
-        <v>44734.503472222219</v>
+        <v>44734.416666666664</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95" si="96">HOUR(C95-B95)</f>
+        <f t="shared" ref="D95" si="94">HOUR(C95-B95)</f>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95" si="97">MINUTE(C95-B95)</f>
-        <v>50</v>
+        <f t="shared" ref="E95" si="95">MINUTE(C95-B95)</f>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -2432,18 +2427,18 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
-        <v>44734.534722222219</v>
+        <v>44734.46875</v>
       </c>
       <c r="C96" s="4">
-        <v>44734.552083333336</v>
+        <v>44734.503472222219</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96" si="98">HOUR(C96-B96)</f>
+        <f t="shared" ref="D96" si="96">HOUR(C96-B96)</f>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96" si="99">MINUTE(C96-B96)</f>
-        <v>25</v>
+        <f t="shared" ref="E96" si="97">MINUTE(C96-B96)</f>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -2454,84 +2449,84 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
+        <v>44734.534722222219</v>
+      </c>
+      <c r="C97" s="4">
         <v>44734.552083333336</v>
       </c>
-      <c r="C97" s="4">
-        <v>44734.565972222219</v>
-      </c>
       <c r="D97">
-        <f t="shared" ref="D97:D98" si="100">HOUR(C97-B97)</f>
+        <f t="shared" ref="D97" si="98">HOUR(C97-B97)</f>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:E98" si="101">MINUTE(C97-B97)</f>
-        <v>20</v>
+        <f t="shared" ref="E97" si="99">MINUTE(C97-B97)</f>
+        <v>25</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
-      </c>
-      <c r="P97" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
+        <v>44734.552083333336</v>
+      </c>
+      <c r="C98" s="4">
         <v>44734.565972222219</v>
       </c>
-      <c r="C98" s="4">
+      <c r="D98">
+        <f t="shared" ref="D98:D99" si="100">HOUR(C98-B98)</f>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98:E99" si="101">MINUTE(C98-B98)</f>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="P98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B99" s="4">
+        <v>44734.565972222219</v>
+      </c>
+      <c r="C99" s="4">
         <v>44734.579861111109</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <f t="shared" si="101"/>
         <v>20</v>
       </c>
-      <c r="G98" t="s">
-        <v>43</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B99" s="4">
-        <v>44734.59375</v>
-      </c>
-      <c r="C99" s="4">
-        <v>44734.622151967589</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ref="D99" si="102">HOUR(C99-B99)</f>
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ref="E99" si="103">MINUTE(C99-B99)</f>
-        <v>40</v>
-      </c>
       <c r="G99" t="s">
         <v>43</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
-        <v>44734.635416666664</v>
+        <v>44734.59375</v>
       </c>
       <c r="C100" s="4">
-        <v>44734.649305555555</v>
+        <v>44734.622151967589</v>
       </c>
       <c r="D100">
-        <f t="shared" ref="D100" si="104">HOUR(C100-B100)</f>
+        <f t="shared" ref="D100" si="102">HOUR(C100-B100)</f>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100" si="105">MINUTE(C100-B100)</f>
-        <v>20</v>
+        <f t="shared" ref="E100" si="103">MINUTE(C100-B100)</f>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
         <v>43</v>
@@ -2540,90 +2535,90 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A102" s="3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B101" s="4">
+        <v>44734.635416666664</v>
+      </c>
+      <c r="C101" s="4">
+        <v>44734.649305555555</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ref="D101" si="104">HOUR(C101-B101)</f>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101" si="105">MINUTE(C101-B101)</f>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>43</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
         <v>44725.465520833335</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B103" s="4">
         <v>44725.461805555555</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C103" s="4">
         <v>44725.465277777781</v>
       </c>
-      <c r="D102">
-        <f t="shared" ref="D102:D103" si="106">HOUR(C102-B102)</f>
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <f t="shared" ref="E102:E103" si="107">MINUTE(C102-B102)</f>
+      <c r="D103">
+        <f t="shared" ref="D103:D104" si="106">HOUR(C103-B103)</f>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:E104" si="107">MINUTE(C103-B103)</f>
         <v>5</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G103" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B103" s="4">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B104" s="4">
         <v>44725.465277777781</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C104" s="4">
         <v>44725.46875</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <f t="shared" si="107"/>
         <v>5</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G104" t="s">
         <v>26</v>
-      </c>
-      <c r="L103" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B104" s="4">
-        <v>44725.472222222219</v>
-      </c>
-      <c r="C104" s="4">
-        <v>44725.490387268517</v>
-      </c>
-      <c r="D104">
-        <f t="shared" ref="D104" si="108">HOUR(C104-B104)</f>
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <f t="shared" ref="E104" si="109">MINUTE(C104-B104)</f>
-        <v>26</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>46</v>
@@ -2631,18 +2626,18 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
-        <v>44725.541666666664</v>
+        <v>44725.472222222219</v>
       </c>
       <c r="C105" s="4">
-        <v>44725.559027777781</v>
+        <v>44725.490387268517</v>
       </c>
       <c r="D105">
-        <f t="shared" ref="D105" si="110">HOUR(C105-B105)</f>
+        <f t="shared" ref="D105" si="108">HOUR(C105-B105)</f>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105" si="111">MINUTE(C105-B105)</f>
-        <v>25</v>
+        <f t="shared" ref="E105" si="109">MINUTE(C105-B105)</f>
+        <v>26</v>
       </c>
       <c r="G105" t="s">
         <v>27</v>
@@ -2653,18 +2648,18 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B106" s="4">
-        <v>44725.572916666664</v>
+        <v>44725.541666666664</v>
       </c>
       <c r="C106" s="4">
-        <v>44725.600694444445</v>
+        <v>44725.559027777781</v>
       </c>
       <c r="D106">
-        <f t="shared" ref="D106" si="112">HOUR(C106-B106)</f>
+        <f t="shared" ref="D106" si="110">HOUR(C106-B106)</f>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" ref="E106" si="113">MINUTE(C106-B106)</f>
-        <v>40</v>
+        <f t="shared" ref="E106" si="111">MINUTE(C106-B106)</f>
+        <v>25</v>
       </c>
       <c r="G106" t="s">
         <v>27</v>
@@ -2675,86 +2670,83 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B107" s="4">
+        <v>44725.572916666664</v>
+      </c>
+      <c r="C107" s="4">
         <v>44725.600694444445</v>
       </c>
-      <c r="C107" s="4">
-        <v>44725.604166666664</v>
-      </c>
       <c r="D107">
-        <f t="shared" ref="D107" si="114">HOUR(C107-B107)</f>
+        <f t="shared" ref="D107" si="112">HOUR(C107-B107)</f>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" ref="E107" si="115">MINUTE(C107-B107)</f>
-        <v>5</v>
+        <f t="shared" ref="E107" si="113">MINUTE(C107-B107)</f>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P107" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B108" s="4">
-        <v>44725.614583333336</v>
+        <v>44725.600694444445</v>
       </c>
       <c r="C108" s="4">
-        <v>44725.635416666664</v>
+        <v>44725.604166666664</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108" si="116">HOUR(C108-B108)</f>
+        <f t="shared" ref="D108" si="114">HOUR(C108-B108)</f>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" ref="E108" si="117">MINUTE(C108-B108)</f>
-        <v>30</v>
+        <f t="shared" ref="E108" si="115">MINUTE(C108-B108)</f>
+        <v>5</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B109" s="4">
+        <v>44725.614583333336</v>
+      </c>
+      <c r="C109" s="4">
         <v>44725.635416666664</v>
       </c>
-      <c r="C109" s="4">
-        <v>44725.638888310183</v>
-      </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="118">HOUR(C109-B109)</f>
+        <f t="shared" ref="D109" si="116">HOUR(C109-B109)</f>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" ref="E109" si="119">MINUTE(C109-B109)</f>
-        <v>5</v>
+        <f t="shared" ref="E109" si="117">MINUTE(C109-B109)</f>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
-      </c>
-      <c r="L109" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
+        <v>44725.635416666664</v>
+      </c>
+      <c r="C110" s="4">
         <v>44725.638888310183</v>
       </c>
-      <c r="C110" s="4">
-        <v>44725.642361111109</v>
-      </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="120">HOUR(C110-B110)</f>
+        <f t="shared" ref="D110" si="118">HOUR(C110-B110)</f>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="121">MINUTE(C110-B110)</f>
+        <f t="shared" ref="E110" si="119">MINUTE(C110-B110)</f>
         <v>5</v>
       </c>
       <c r="G110" t="s">
@@ -2764,285 +2756,285 @@
         <v>34</v>
       </c>
       <c r="P110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
+        <v>44725.638888310183</v>
+      </c>
+      <c r="C111" s="4">
         <v>44725.642361111109</v>
       </c>
-      <c r="C111" s="4">
+      <c r="D111">
+        <f t="shared" ref="D111" si="120">HOUR(C111-B111)</f>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ref="E111" si="121">MINUTE(C111-B111)</f>
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B112" s="4">
+        <v>44725.642361111109</v>
+      </c>
+      <c r="C112" s="4">
         <v>44725.645833333336</v>
       </c>
-      <c r="D111">
-        <f t="shared" ref="D111" si="122">HOUR(C111-B111)</f>
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <f t="shared" ref="E111" si="123">MINUTE(C111-B111)</f>
+      <c r="D112">
+        <f t="shared" ref="D112" si="122">HOUR(C112-B112)</f>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112" si="123">MINUTE(C112-B112)</f>
         <v>5</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G112" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A113" s="3">
+    <row r="113" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
         <v>44720.354900347222</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B114" s="4">
         <v>44720.340277777781</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C114" s="4">
         <v>44720.354166666664</v>
       </c>
-      <c r="D113">
-        <f t="shared" ref="D113:D118" si="124">HOUR(C113-B113)</f>
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <f t="shared" ref="E113:E118" si="125">MINUTE(C113-B113)</f>
+      <c r="D114">
+        <f t="shared" ref="D114:D119" si="124">HOUR(C114-B114)</f>
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114:E119" si="125">MINUTE(C114-B114)</f>
         <v>20</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G114" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B114" s="4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B115" s="4">
         <v>44720.354166666664</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C115" s="4">
         <v>44720.368055555555</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <f t="shared" si="125"/>
         <v>20</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>23</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="L115" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B115" s="4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B116" s="4">
         <v>44720.368055555555</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C116" s="4">
         <v>44720.392361111109</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <f t="shared" si="125"/>
         <v>35</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G116" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B116" s="4">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B117" s="4">
         <v>44720.392361111109</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C117" s="4">
         <v>44720.395445717593</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <f t="shared" si="125"/>
         <v>4</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B117" s="4">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B118" s="4">
         <v>44720.399305555555</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C118" s="4">
         <v>44720.40625</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <f t="shared" si="125"/>
         <v>10</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B118" s="4">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B119" s="4">
         <v>44720.430555555555</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C119" s="4">
         <v>44720.434260185182</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <f t="shared" si="125"/>
         <v>5</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A120" s="3">
+    <row r="120" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
         <v>44719.64533900463</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B121" s="4">
         <v>44719.635416666664</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C121" s="4">
         <v>44719.660900115741</v>
       </c>
-      <c r="D120">
-        <f>HOUR(C120-B120)</f>
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <f>MINUTE(C120-B120)</f>
+      <c r="D121">
+        <f>HOUR(C121-B121)</f>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f>MINUTE(C121-B121)</f>
         <v>36</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>19</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L121" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="Q121" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A122" s="3">
+    <row r="122" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
         <v>44715.421663310182</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B123" s="4">
         <v>44715.416666666664</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C123" s="4">
         <v>44715.423611111109</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G123" t="s">
         <v>12</v>
       </c>
-      <c r="L122" s="11" t="s">
+      <c r="L123" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="R122" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B123" s="4">
-        <v>44715.423611111109</v>
-      </c>
-      <c r="C123" s="4">
-        <v>44715.430555555555</v>
-      </c>
-      <c r="D123">
-        <f t="shared" ref="D123:D124" si="126">HOUR(C123-B123)</f>
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <f t="shared" ref="E123:E124" si="127">MINUTE(C123-B123)</f>
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="R123" s="6" t="s">
         <v>16</v>
@@ -3050,116 +3042,142 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
+        <v>44715.423611111109</v>
+      </c>
+      <c r="C124" s="4">
+        <v>44715.430555555555</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ref="D124:D125" si="126">HOUR(C124-B124)</f>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ref="E124:E125" si="127">MINUTE(C124-B124)</f>
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B125" s="4">
         <v>44715.434027777781</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C125" s="4">
         <v>44715.5</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <f t="shared" si="126"/>
         <v>1</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <f t="shared" si="127"/>
         <v>35</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G125" t="s">
         <v>17</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L125" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R124" s="6" t="s">
+      <c r="R125" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C125" s="4">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C126" s="4">
         <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A127" s="3">
+        <v>44886.58001273148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
         <v>44714.614583333336</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B128" s="4">
         <v>44714.604166666664</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C128" s="4">
         <v>44714.614583333336</v>
       </c>
-      <c r="D127">
-        <f t="shared" ref="D127" si="128">HOUR(C127-B127)</f>
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <f t="shared" ref="E127" si="129">MINUTE(C127-B127)</f>
+      <c r="D128">
+        <f t="shared" ref="D128" si="128">HOUR(C128-B128)</f>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ref="E128" si="129">MINUTE(C128-B128)</f>
         <v>15</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C128" s="4">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C129" s="4">
         <f ca="1">NOW()</f>
-        <v>44824.664813773146</v>
+        <v>44886.58001273148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L1" r:id="rId1" xr:uid="{4DFC6DFE-7EB6-480D-8DDA-5853BA9B7D1E}"/>
-    <hyperlink ref="R122" r:id="rId2" xr:uid="{DAB225D6-68CC-4506-A588-8775067F202D}"/>
-    <hyperlink ref="R123" r:id="rId3" xr:uid="{0CAA8982-26C2-45BC-8951-4B4F45CFC3B0}"/>
-    <hyperlink ref="R124" r:id="rId4" xr:uid="{D914004A-DAD4-445E-AB5E-42776B00F74E}"/>
-    <hyperlink ref="P79" r:id="rId5" xr:uid="{5E439A9E-E013-48D1-BC05-759B3243BE54}"/>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{1856D92E-B1BE-41AD-B47A-A221C5D426D9}"/>
-    <hyperlink ref="L3" r:id="rId7" xr:uid="{574D5885-49ED-41CA-9AA4-FA5D4368B238}"/>
-    <hyperlink ref="L4" r:id="rId8" xr:uid="{2AE26AC3-3763-4AAC-88F9-1C31D04D3739}"/>
-    <hyperlink ref="P73" r:id="rId9" xr:uid="{C4C2282A-1752-4488-9091-3A19079DA4DE}"/>
-    <hyperlink ref="P64" r:id="rId10" xr:uid="{193A3014-A8D2-49DF-990D-004296BFBF79}"/>
-    <hyperlink ref="P67" r:id="rId11" xr:uid="{E06E7B5A-1A68-4341-B3EF-DC610C774EA7}"/>
-    <hyperlink ref="P61" r:id="rId12" xr:uid="{7C33BF86-A694-48C5-9BE1-BBD6F16206D2}"/>
-    <hyperlink ref="P56" r:id="rId13" xr:uid="{063843C3-78B5-4DCA-A4B8-E815E38E9EE8}"/>
-    <hyperlink ref="P57" r:id="rId14" xr:uid="{7AB3DABC-CB4C-4105-87E6-5E3C2B43DD49}"/>
-    <hyperlink ref="P58" r:id="rId15" xr:uid="{135F0B70-F98F-4C3D-A548-3A26ACEEB54D}"/>
-    <hyperlink ref="P48" r:id="rId16" xr:uid="{0B60599A-1F7E-40F7-A8D3-EAAA4C8005C1}"/>
-    <hyperlink ref="P49" r:id="rId17" xr:uid="{F4F87235-10EF-4C6D-B439-E645396A4D69}"/>
-    <hyperlink ref="P50" r:id="rId18" xr:uid="{CFDB9921-6008-48F9-8556-245E64B07590}"/>
-    <hyperlink ref="P51" r:id="rId19" xr:uid="{19BD0B76-6CEB-40C0-975F-B18630A0337A}"/>
-    <hyperlink ref="P52" r:id="rId20" xr:uid="{02EF5D2D-1670-4B0E-89EA-436F77B076E6}"/>
-    <hyperlink ref="P41" r:id="rId21" xr:uid="{FD63D979-6F53-4801-B3BD-0C5831A68728}"/>
-    <hyperlink ref="P42" r:id="rId22" display="OneDrive -...\SQL Server Management Studio\Whse_Client_Inqry_AWS_PROD" xr:uid="{FE017E08-6269-4DDF-B6E0-8BDCC285D550}"/>
-    <hyperlink ref="P38" r:id="rId23" display="OneDrive -...\SQL Server Management Studio\Whse_Client_Inqry_AWS_PROD" xr:uid="{6CAF0F84-764F-4A6C-8F2E-517ACE6F933A}"/>
-    <hyperlink ref="P35" r:id="rId24" xr:uid="{AE247F18-0EE4-47C7-B115-0A019F128B78}"/>
-    <hyperlink ref="P16" r:id="rId25" xr:uid="{9E4356D0-A5F4-4168-9906-064A294B9875}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{4DFC6DFE-7EB6-480D-8DDA-5853BA9B7D1E}"/>
+    <hyperlink ref="R123" r:id="rId2" xr:uid="{DAB225D6-68CC-4506-A588-8775067F202D}"/>
+    <hyperlink ref="R124" r:id="rId3" xr:uid="{0CAA8982-26C2-45BC-8951-4B4F45CFC3B0}"/>
+    <hyperlink ref="R125" r:id="rId4" xr:uid="{D914004A-DAD4-445E-AB5E-42776B00F74E}"/>
+    <hyperlink ref="P80" r:id="rId5" xr:uid="{5E439A9E-E013-48D1-BC05-759B3243BE54}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{1856D92E-B1BE-41AD-B47A-A221C5D426D9}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{574D5885-49ED-41CA-9AA4-FA5D4368B238}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{2AE26AC3-3763-4AAC-88F9-1C31D04D3739}"/>
+    <hyperlink ref="P74" r:id="rId9" xr:uid="{C4C2282A-1752-4488-9091-3A19079DA4DE}"/>
+    <hyperlink ref="P65" r:id="rId10" xr:uid="{193A3014-A8D2-49DF-990D-004296BFBF79}"/>
+    <hyperlink ref="P68" r:id="rId11" xr:uid="{E06E7B5A-1A68-4341-B3EF-DC610C774EA7}"/>
+    <hyperlink ref="P62" r:id="rId12" xr:uid="{7C33BF86-A694-48C5-9BE1-BBD6F16206D2}"/>
+    <hyperlink ref="P57" r:id="rId13" xr:uid="{063843C3-78B5-4DCA-A4B8-E815E38E9EE8}"/>
+    <hyperlink ref="P58" r:id="rId14" xr:uid="{7AB3DABC-CB4C-4105-87E6-5E3C2B43DD49}"/>
+    <hyperlink ref="P59" r:id="rId15" xr:uid="{135F0B70-F98F-4C3D-A548-3A26ACEEB54D}"/>
+    <hyperlink ref="P49" r:id="rId16" xr:uid="{0B60599A-1F7E-40F7-A8D3-EAAA4C8005C1}"/>
+    <hyperlink ref="P50" r:id="rId17" xr:uid="{F4F87235-10EF-4C6D-B439-E645396A4D69}"/>
+    <hyperlink ref="P51" r:id="rId18" xr:uid="{CFDB9921-6008-48F9-8556-245E64B07590}"/>
+    <hyperlink ref="P52" r:id="rId19" xr:uid="{19BD0B76-6CEB-40C0-975F-B18630A0337A}"/>
+    <hyperlink ref="P53" r:id="rId20" xr:uid="{02EF5D2D-1670-4B0E-89EA-436F77B076E6}"/>
+    <hyperlink ref="P42" r:id="rId21" xr:uid="{FD63D979-6F53-4801-B3BD-0C5831A68728}"/>
+    <hyperlink ref="P43" r:id="rId22" display="OneDrive -...\SQL Server Management Studio\Whse_Client_Inqry_AWS_PROD" xr:uid="{FE017E08-6269-4DDF-B6E0-8BDCC285D550}"/>
+    <hyperlink ref="P39" r:id="rId23" display="OneDrive -...\SQL Server Management Studio\Whse_Client_Inqry_AWS_PROD" xr:uid="{6CAF0F84-764F-4A6C-8F2E-517ACE6F933A}"/>
+    <hyperlink ref="P36" r:id="rId24" xr:uid="{AE247F18-0EE4-47C7-B115-0A019F128B78}"/>
+    <hyperlink ref="P28" r:id="rId25" xr:uid="{9E4356D0-A5F4-4168-9906-064A294B9875}"/>
+    <hyperlink ref="L1" r:id="rId26" xr:uid="{EBE28E08-0A07-4097-82EE-EA4F4B5FC233}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/ClientInformationRequests/ProjTracking/AD_ProjectTracking.xlsx
+++ b/ClientInformationRequests/ProjTracking/AD_ProjectTracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AWALKER\source\repos\Projects\ClientInformationProjMgt\ProjTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Common\Amazon Web Services Project\APPDEV Team\AutomationDesign\ClientInformationRequests\ProjRepo\ClientInformationRequests\ClientInformationRequests\ProjTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFFC71A-EAAC-4AEC-9547-D6A1701A92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5274DDA-4E04-46FF-9900-1BA88BD91978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17410" yWindow="1220" windowWidth="18190" windowHeight="8510" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="17100" windowHeight="8510" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dev't Tracking" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
   <si>
     <t>DAY</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>set up repository for project files.</t>
+  </si>
+  <si>
+    <t>repo reorganization</t>
+  </si>
+  <si>
+    <t>R:\Common\Amazon Web Services Project\APPDEV Team\AutomationDesign\ClientInformationRequests\ProjRepo\ClientInformationRequests</t>
   </si>
 </sst>
 </file>
@@ -648,8 +654,8 @@
   <dimension ref="A1:U129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,11 +672,11 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
       <c r="B2" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -745,6 +751,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44886.588854050926</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44886.427083333336</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44886.496527777781</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="0">HOUR(C10-B10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10" si="1">MINUTE(C10-B10)</f>
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -793,11 +824,11 @@
         <v>44824.651737499997</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="0">HOUR(C24-B24)</f>
+        <f t="shared" ref="D24" si="2">HOUR(C24-B24)</f>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="1">MINUTE(C24-B24)</f>
+        <f t="shared" ref="E24" si="3">MINUTE(C24-B24)</f>
         <v>8</v>
       </c>
       <c r="G24" t="s">
@@ -838,11 +869,11 @@
         <v>44771.600694444445</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26" si="2">HOUR(C26-B26)</f>
+        <f t="shared" ref="D26" si="4">HOUR(C26-B26)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="3">MINUTE(C26-B26)</f>
+        <f t="shared" ref="E26" si="5">MINUTE(C26-B26)</f>
         <v>4</v>
       </c>
       <c r="G26" t="s">
@@ -857,11 +888,11 @@
         <v>44771.621527777781</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27" si="4">HOUR(C27-B27)</f>
+        <f t="shared" ref="D27" si="6">HOUR(C27-B27)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="5">MINUTE(C27-B27)</f>
+        <f t="shared" ref="E27" si="7">MINUTE(C27-B27)</f>
         <v>30</v>
       </c>
       <c r="G27" t="s">
@@ -879,11 +910,11 @@
         <v>44771.65625</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28" si="6">HOUR(C28-B28)</f>
+        <f t="shared" ref="D28" si="8">HOUR(C28-B28)</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28" si="7">MINUTE(C28-B28)</f>
+        <f t="shared" ref="E28" si="9">MINUTE(C28-B28)</f>
         <v>50</v>
       </c>
       <c r="G28" t="s">
@@ -899,7 +930,7 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C29" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -936,11 +967,11 @@
         <v>44770.573155092592</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="8">HOUR(C31-B31)</f>
+        <f t="shared" ref="D31" si="10">HOUR(C31-B31)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="9">MINUTE(C31-B31)</f>
+        <f t="shared" ref="E31" si="11">MINUTE(C31-B31)</f>
         <v>5</v>
       </c>
       <c r="G31" t="s">
@@ -955,11 +986,11 @@
         <v>44770.583333333336</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32" si="10">HOUR(C32-B32)</f>
+        <f t="shared" ref="D32" si="12">HOUR(C32-B32)</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="11">MINUTE(C32-B32)</f>
+        <f t="shared" ref="E32" si="13">MINUTE(C32-B32)</f>
         <v>14</v>
       </c>
       <c r="G32" t="s">
@@ -977,11 +1008,11 @@
         <v>44770.652777777781</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33" si="12">HOUR(C33-B33)</f>
+        <f t="shared" ref="D33" si="14">HOUR(C33-B33)</f>
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="13">MINUTE(C33-B33)</f>
+        <f t="shared" ref="E33" si="15">MINUTE(C33-B33)</f>
         <v>30</v>
       </c>
       <c r="G33" t="s">
@@ -1025,11 +1056,11 @@
         <v>44769.534722222219</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35" si="14">HOUR(C35-B35)</f>
+        <f t="shared" ref="D35" si="16">HOUR(C35-B35)</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="15">MINUTE(C35-B35)</f>
+        <f t="shared" ref="E35" si="17">MINUTE(C35-B35)</f>
         <v>5</v>
       </c>
       <c r="G35" t="s">
@@ -1044,11 +1075,11 @@
         <v>44769.652777777781</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36" si="16">HOUR(C36-B36)</f>
+        <f t="shared" ref="D36" si="18">HOUR(C36-B36)</f>
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="17">MINUTE(C36-B36)</f>
+        <f t="shared" ref="E36" si="19">MINUTE(C36-B36)</f>
         <v>50</v>
       </c>
       <c r="G36" t="s">
@@ -1095,11 +1126,11 @@
         <v>44768.638888888891</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D39" si="18">HOUR(C38-B38)</f>
+        <f t="shared" ref="D38:D39" si="20">HOUR(C38-B38)</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E39" si="19">MINUTE(C38-B38)</f>
+        <f t="shared" ref="E38:E39" si="21">MINUTE(C38-B38)</f>
         <v>5</v>
       </c>
       <c r="G38" t="s">
@@ -1114,11 +1145,11 @@
         <v>44768.656858449074</v>
       </c>
       <c r="D39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="G39" t="s">
@@ -1165,11 +1196,11 @@
         <v>44767.569444444445</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:D42" si="20">HOUR(C41-B41)</f>
+        <f t="shared" ref="D41:D42" si="22">HOUR(C41-B41)</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E42" si="21">MINUTE(C41-B41)</f>
+        <f t="shared" ref="E41:E42" si="23">MINUTE(C41-B41)</f>
         <v>5</v>
       </c>
       <c r="G41" t="s">
@@ -1184,11 +1215,11 @@
         <v>44767.607638888891</v>
       </c>
       <c r="D42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="G42" t="s">
@@ -1209,11 +1240,11 @@
         <v>44767.64647777778</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="22">HOUR(C43-B43)</f>
+        <f t="shared" ref="D43" si="24">HOUR(C43-B43)</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43" si="23">MINUTE(C43-B43)</f>
+        <f t="shared" ref="E43" si="25">MINUTE(C43-B43)</f>
         <v>55</v>
       </c>
       <c r="G43" t="s">
@@ -1260,11 +1291,11 @@
         <v>44764.347222222219</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45" si="24">HOUR(C45-B45)</f>
+        <f t="shared" ref="D45" si="26">HOUR(C45-B45)</f>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="25">MINUTE(C45-B45)</f>
+        <f t="shared" ref="E45" si="27">MINUTE(C45-B45)</f>
         <v>5</v>
       </c>
       <c r="G45" t="s">
@@ -1279,11 +1310,11 @@
         <v>44764.5</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46" si="26">HOUR(C46-B46)</f>
+        <f t="shared" ref="D46" si="28">HOUR(C46-B46)</f>
         <v>3</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46" si="27">MINUTE(C46-B46)</f>
+        <f t="shared" ref="E46" si="29">MINUTE(C46-B46)</f>
         <v>40</v>
       </c>
       <c r="G46" t="s">
@@ -1327,11 +1358,11 @@
         <v>44763.461805555555</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48" si="28">HOUR(C48-B48)</f>
+        <f t="shared" ref="D48" si="30">HOUR(C48-B48)</f>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48" si="29">MINUTE(C48-B48)</f>
+        <f t="shared" ref="E48" si="31">MINUTE(C48-B48)</f>
         <v>5</v>
       </c>
       <c r="G48" t="s">
@@ -1346,11 +1377,11 @@
         <v>44763.475694444445</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="30">HOUR(C49-B49)</f>
+        <f t="shared" ref="D49" si="32">HOUR(C49-B49)</f>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="31">MINUTE(C49-B49)</f>
+        <f t="shared" ref="E49" si="33">MINUTE(C49-B49)</f>
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -1371,11 +1402,11 @@
         <v>44763.479187384262</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50" si="32">HOUR(C50-B50)</f>
+        <f t="shared" ref="D50" si="34">HOUR(C50-B50)</f>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50" si="33">MINUTE(C50-B50)</f>
+        <f t="shared" ref="E50" si="35">MINUTE(C50-B50)</f>
         <v>5</v>
       </c>
       <c r="G50" t="s">
@@ -1396,11 +1427,11 @@
         <v>44763.500272337966</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51" si="34">HOUR(C51-B51)</f>
+        <f t="shared" ref="D51" si="36">HOUR(C51-B51)</f>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51" si="35">MINUTE(C51-B51)</f>
+        <f t="shared" ref="E51" si="37">MINUTE(C51-B51)</f>
         <v>30</v>
       </c>
       <c r="G51" t="s">
@@ -1421,11 +1452,11 @@
         <v>44763.576388888891</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52" si="36">HOUR(C52-B52)</f>
+        <f t="shared" ref="D52" si="38">HOUR(C52-B52)</f>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" si="37">MINUTE(C52-B52)</f>
+        <f t="shared" ref="E52" si="39">MINUTE(C52-B52)</f>
         <v>25</v>
       </c>
       <c r="G52" t="s">
@@ -1446,11 +1477,11 @@
         <v>44763.586805555555</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53" si="38">HOUR(C53-B53)</f>
+        <f t="shared" ref="D53" si="40">HOUR(C53-B53)</f>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53" si="39">MINUTE(C53-B53)</f>
+        <f t="shared" ref="E53" si="41">MINUTE(C53-B53)</f>
         <v>15</v>
       </c>
       <c r="G53" t="s">
@@ -1471,11 +1502,11 @@
         <v>44763.645833333336</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54" si="40">HOUR(C54-B54)</f>
+        <f t="shared" ref="D54" si="42">HOUR(C54-B54)</f>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54" si="41">MINUTE(C54-B54)</f>
+        <f t="shared" ref="E54" si="43">MINUTE(C54-B54)</f>
         <v>40</v>
       </c>
       <c r="G54" t="s">
@@ -1516,11 +1547,11 @@
         <v>44762.350694444445</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56" si="42">HOUR(C56-B56)</f>
+        <f t="shared" ref="D56" si="44">HOUR(C56-B56)</f>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" ref="E56" si="43">MINUTE(C56-B56)</f>
+        <f t="shared" ref="E56" si="45">MINUTE(C56-B56)</f>
         <v>10</v>
       </c>
       <c r="G56" t="s">
@@ -1535,11 +1566,11 @@
         <v>44762.479166666664</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57" si="44">HOUR(C57-B57)</f>
+        <f t="shared" ref="D57" si="46">HOUR(C57-B57)</f>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57" si="45">MINUTE(C57-B57)</f>
+        <f t="shared" ref="E57" si="47">MINUTE(C57-B57)</f>
         <v>55</v>
       </c>
       <c r="G57" t="s">
@@ -1560,11 +1591,11 @@
         <v>44762.538194444445</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58" si="46">HOUR(C58-B58)</f>
+        <f t="shared" ref="D58" si="48">HOUR(C58-B58)</f>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58" si="47">MINUTE(C58-B58)</f>
+        <f t="shared" ref="E58" si="49">MINUTE(C58-B58)</f>
         <v>25</v>
       </c>
       <c r="G58" t="s">
@@ -1585,11 +1616,11 @@
         <v>44762.541666666664</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59" si="48">HOUR(C59-B59)</f>
+        <f t="shared" ref="D59" si="50">HOUR(C59-B59)</f>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59" si="49">MINUTE(C59-B59)</f>
+        <f t="shared" ref="E59" si="51">MINUTE(C59-B59)</f>
         <v>5</v>
       </c>
       <c r="G59" t="s">
@@ -1636,11 +1667,11 @@
         <v>44761.534722222219</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:D62" si="50">HOUR(C61-B61)</f>
+        <f t="shared" ref="D61:D62" si="52">HOUR(C61-B61)</f>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E62" si="51">MINUTE(C61-B61)</f>
+        <f t="shared" ref="E61:E62" si="53">MINUTE(C61-B61)</f>
         <v>5</v>
       </c>
       <c r="G61" t="s">
@@ -1655,11 +1686,11 @@
         <v>44761.621937384261</v>
       </c>
       <c r="D62">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="E62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="G62" t="s">
@@ -1706,11 +1737,11 @@
         <v>44760.618055555555</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="52">HOUR(C64-B64)</f>
+        <f t="shared" ref="D64" si="54">HOUR(C64-B64)</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64" si="53">MINUTE(C64-B64)</f>
+        <f t="shared" ref="E64" si="55">MINUTE(C64-B64)</f>
         <v>5</v>
       </c>
       <c r="G64" t="s">
@@ -1725,11 +1756,11 @@
         <v>44760.652777777781</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65" si="54">HOUR(C65-B65)</f>
+        <f t="shared" ref="D65" si="56">HOUR(C65-B65)</f>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" ref="E65" si="55">MINUTE(C65-B65)</f>
+        <f t="shared" ref="E65" si="57">MINUTE(C65-B65)</f>
         <v>50</v>
       </c>
       <c r="G65" t="s">
@@ -1776,11 +1807,11 @@
         <v>44756.472222222219</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D68" si="56">HOUR(C67-B67)</f>
+        <f t="shared" ref="D67:D68" si="58">HOUR(C67-B67)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E68" si="57">MINUTE(C67-B67)</f>
+        <f t="shared" ref="E67:E68" si="59">MINUTE(C67-B67)</f>
         <v>5</v>
       </c>
       <c r="G67" t="s">
@@ -1798,11 +1829,11 @@
         <v>44756.475694444445</v>
       </c>
       <c r="D68">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5</v>
       </c>
       <c r="G68" t="s">
@@ -1849,11 +1880,11 @@
         <v>44741.365069444444</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D71" si="58">HOUR(C70-B70)</f>
+        <f t="shared" ref="D70:D71" si="60">HOUR(C70-B70)</f>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E71" si="59">MINUTE(C70-B70)</f>
+        <f t="shared" ref="E70:E71" si="61">MINUTE(C70-B70)</f>
         <v>10</v>
       </c>
       <c r="G70" t="s">
@@ -1866,15 +1897,15 @@
       </c>
       <c r="C71" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>4</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="59"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>59</v>
       </c>
       <c r="G71" t="s">
         <v>57</v>
@@ -1920,11 +1951,11 @@
         <v>44740.371527777781</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="60">HOUR(C73-B73)</f>
+        <f t="shared" ref="D73" si="62">HOUR(C73-B73)</f>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73" si="61">MINUTE(C73-B73)</f>
+        <f t="shared" ref="E73" si="63">MINUTE(C73-B73)</f>
         <v>10</v>
       </c>
       <c r="G73" t="s">
@@ -1939,11 +1970,11 @@
         <v>44740.392361111109</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74" si="62">HOUR(C74-B74)</f>
+        <f t="shared" ref="D74" si="64">HOUR(C74-B74)</f>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74" si="63">MINUTE(C74-B74)</f>
+        <f t="shared" ref="E74" si="65">MINUTE(C74-B74)</f>
         <v>5</v>
       </c>
       <c r="G74" t="s">
@@ -1964,11 +1995,11 @@
         <v>44740.430555555598</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75" si="64">HOUR(C75-B75)</f>
+        <f t="shared" ref="D75" si="66">HOUR(C75-B75)</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75" si="65">MINUTE(C75-B75)</f>
+        <f t="shared" ref="E75" si="67">MINUTE(C75-B75)</f>
         <v>40</v>
       </c>
       <c r="G75" t="s">
@@ -1986,11 +2017,11 @@
         <v>44740.496527777781</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="66">HOUR(C76-B76)</f>
+        <f t="shared" ref="D76" si="68">HOUR(C76-B76)</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" si="67">MINUTE(C76-B76)</f>
+        <f t="shared" ref="E76" si="69">MINUTE(C76-B76)</f>
         <v>35</v>
       </c>
       <c r="G76" t="s">
@@ -2006,15 +2037,15 @@
       </c>
       <c r="C77" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77" ca="1" si="68">HOUR(C77-B77)</f>
+        <f t="shared" ref="D77" ca="1" si="70">HOUR(C77-B77)</f>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77" ca="1" si="69">MINUTE(C77-B77)</f>
-        <v>10</v>
+        <f t="shared" ref="E77" ca="1" si="71">MINUTE(C77-B77)</f>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -2057,11 +2088,11 @@
         <v>44736.326388888891</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="70">HOUR(C79-B79)</f>
+        <f t="shared" ref="D79" si="72">HOUR(C79-B79)</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="71">MINUTE(C79-B79)</f>
+        <f t="shared" ref="E79" si="73">MINUTE(C79-B79)</f>
         <v>5</v>
       </c>
       <c r="G79" t="s">
@@ -2076,11 +2107,11 @@
         <v>44736.364583333336</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D81" si="72">HOUR(C80-B80)</f>
+        <f t="shared" ref="D80:D81" si="74">HOUR(C80-B80)</f>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E80:E81" si="73">MINUTE(C80-B80)</f>
+        <f t="shared" ref="E80:E81" si="75">MINUTE(C80-B80)</f>
         <v>55</v>
       </c>
       <c r="G80" t="s">
@@ -2101,11 +2132,11 @@
         <v>44736.40625</v>
       </c>
       <c r="D81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>50</v>
       </c>
       <c r="G81" t="s">
@@ -2123,11 +2154,11 @@
         <v>44736.631954166667</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="74">HOUR(C82-B82)</f>
+        <f t="shared" ref="D82" si="76">HOUR(C82-B82)</f>
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82" si="75">MINUTE(C82-B82)</f>
+        <f t="shared" ref="E82" si="77">MINUTE(C82-B82)</f>
         <v>15</v>
       </c>
       <c r="G82" t="s">
@@ -2171,11 +2202,11 @@
         <v>44735.34375</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84:D85" si="76">HOUR(C84-B84)</f>
+        <f t="shared" ref="D84:D85" si="78">HOUR(C84-B84)</f>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" ref="E84:E85" si="77">MINUTE(C84-B84)</f>
+        <f t="shared" ref="E84:E85" si="79">MINUTE(C84-B84)</f>
         <v>5</v>
       </c>
       <c r="G84" t="s">
@@ -2190,11 +2221,11 @@
         <v>44735.347222222219</v>
       </c>
       <c r="D85">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>5</v>
       </c>
       <c r="G85" t="s">
@@ -2212,11 +2243,11 @@
         <v>44735.500040856481</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86" si="78">HOUR(C86-B86)</f>
+        <f t="shared" ref="D86" si="80">HOUR(C86-B86)</f>
         <v>3</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86" si="79">MINUTE(C86-B86)</f>
+        <f t="shared" ref="E86" si="81">MINUTE(C86-B86)</f>
         <v>40</v>
       </c>
       <c r="G86" t="s">
@@ -2234,11 +2265,11 @@
         <v>44735.604166666664</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87" si="80">HOUR(C87-B87)</f>
+        <f t="shared" ref="D87" si="82">HOUR(C87-B87)</f>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" ref="E87" si="81">MINUTE(C87-B87)</f>
+        <f t="shared" ref="E87" si="83">MINUTE(C87-B87)</f>
         <v>55</v>
       </c>
       <c r="G87" t="s">
@@ -2256,11 +2287,11 @@
         <v>44735.649305555555</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88" si="82">HOUR(C88-B88)</f>
+        <f t="shared" ref="D88" si="84">HOUR(C88-B88)</f>
         <v>1</v>
       </c>
       <c r="E88">
-        <f t="shared" ref="E88" si="83">MINUTE(C88-B88)</f>
+        <f t="shared" ref="E88" si="85">MINUTE(C88-B88)</f>
         <v>5</v>
       </c>
       <c r="G88" t="s">
@@ -2304,11 +2335,11 @@
         <v>44734.354166666664</v>
       </c>
       <c r="D90">
-        <f t="shared" ref="D90" si="84">HOUR(C90-B90)</f>
+        <f t="shared" ref="D90" si="86">HOUR(C90-B90)</f>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" ref="E90" si="85">MINUTE(C90-B90)</f>
+        <f t="shared" ref="E90" si="87">MINUTE(C90-B90)</f>
         <v>5</v>
       </c>
       <c r="G90" t="s">
@@ -2323,11 +2354,11 @@
         <v>44734.357638888891</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="86">HOUR(C91-B91)</f>
+        <f t="shared" ref="D91" si="88">HOUR(C91-B91)</f>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" ref="E91" si="87">MINUTE(C91-B91)</f>
+        <f t="shared" ref="E91" si="89">MINUTE(C91-B91)</f>
         <v>5</v>
       </c>
       <c r="G91" t="s">
@@ -2345,11 +2376,11 @@
         <v>44734.371527777803</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92" si="88">HOUR(C92-B92)</f>
+        <f t="shared" ref="D92" si="90">HOUR(C92-B92)</f>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92" si="89">MINUTE(C92-B92)</f>
+        <f t="shared" ref="E92" si="91">MINUTE(C92-B92)</f>
         <v>10</v>
       </c>
       <c r="G92" t="s">
@@ -2364,11 +2395,11 @@
         <v>44734.40625</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93" si="90">HOUR(C93-B93)</f>
+        <f t="shared" ref="D93" si="92">HOUR(C93-B93)</f>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93" si="91">MINUTE(C93-B93)</f>
+        <f t="shared" ref="E93" si="93">MINUTE(C93-B93)</f>
         <v>20</v>
       </c>
       <c r="G93" t="s">
@@ -2389,11 +2420,11 @@
         <v>44734.413194444445</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94" si="92">HOUR(C94-B94)</f>
+        <f t="shared" ref="D94" si="94">HOUR(C94-B94)</f>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94" si="93">MINUTE(C94-B94)</f>
+        <f t="shared" ref="E94" si="95">MINUTE(C94-B94)</f>
         <v>10</v>
       </c>
       <c r="G94" t="s">
@@ -2411,11 +2442,11 @@
         <v>44734.416666666664</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95" si="94">HOUR(C95-B95)</f>
+        <f t="shared" ref="D95" si="96">HOUR(C95-B95)</f>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95" si="95">MINUTE(C95-B95)</f>
+        <f t="shared" ref="E95" si="97">MINUTE(C95-B95)</f>
         <v>5</v>
       </c>
       <c r="G95" t="s">
@@ -2433,11 +2464,11 @@
         <v>44734.503472222219</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96" si="96">HOUR(C96-B96)</f>
+        <f t="shared" ref="D96" si="98">HOUR(C96-B96)</f>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96" si="97">MINUTE(C96-B96)</f>
+        <f t="shared" ref="E96" si="99">MINUTE(C96-B96)</f>
         <v>50</v>
       </c>
       <c r="G96" t="s">
@@ -2455,11 +2486,11 @@
         <v>44734.552083333336</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="98">HOUR(C97-B97)</f>
+        <f t="shared" ref="D97" si="100">HOUR(C97-B97)</f>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97" si="99">MINUTE(C97-B97)</f>
+        <f t="shared" ref="E97" si="101">MINUTE(C97-B97)</f>
         <v>25</v>
       </c>
       <c r="G97" t="s">
@@ -2477,11 +2508,11 @@
         <v>44734.565972222219</v>
       </c>
       <c r="D98">
-        <f t="shared" ref="D98:D99" si="100">HOUR(C98-B98)</f>
+        <f t="shared" ref="D98:D99" si="102">HOUR(C98-B98)</f>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E99" si="101">MINUTE(C98-B98)</f>
+        <f t="shared" ref="E98:E99" si="103">MINUTE(C98-B98)</f>
         <v>20</v>
       </c>
       <c r="G98" t="s">
@@ -2499,11 +2530,11 @@
         <v>44734.579861111109</v>
       </c>
       <c r="D99">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>20</v>
       </c>
       <c r="G99" t="s">
@@ -2521,11 +2552,11 @@
         <v>44734.622151967589</v>
       </c>
       <c r="D100">
-        <f t="shared" ref="D100" si="102">HOUR(C100-B100)</f>
+        <f t="shared" ref="D100" si="104">HOUR(C100-B100)</f>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100" si="103">MINUTE(C100-B100)</f>
+        <f t="shared" ref="E100" si="105">MINUTE(C100-B100)</f>
         <v>40</v>
       </c>
       <c r="G100" t="s">
@@ -2543,11 +2574,11 @@
         <v>44734.649305555555</v>
       </c>
       <c r="D101">
-        <f t="shared" ref="D101" si="104">HOUR(C101-B101)</f>
+        <f t="shared" ref="D101" si="106">HOUR(C101-B101)</f>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" ref="E101" si="105">MINUTE(C101-B101)</f>
+        <f t="shared" ref="E101" si="107">MINUTE(C101-B101)</f>
         <v>20</v>
       </c>
       <c r="G101" t="s">
@@ -2591,11 +2622,11 @@
         <v>44725.465277777781</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:D104" si="106">HOUR(C103-B103)</f>
+        <f t="shared" ref="D103:D104" si="108">HOUR(C103-B103)</f>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:E104" si="107">MINUTE(C103-B103)</f>
+        <f t="shared" ref="E103:E104" si="109">MINUTE(C103-B103)</f>
         <v>5</v>
       </c>
       <c r="G103" t="s">
@@ -2610,11 +2641,11 @@
         <v>44725.46875</v>
       </c>
       <c r="D104">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>5</v>
       </c>
       <c r="G104" t="s">
@@ -2632,11 +2663,11 @@
         <v>44725.490387268517</v>
       </c>
       <c r="D105">
-        <f t="shared" ref="D105" si="108">HOUR(C105-B105)</f>
+        <f t="shared" ref="D105" si="110">HOUR(C105-B105)</f>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105" si="109">MINUTE(C105-B105)</f>
+        <f t="shared" ref="E105" si="111">MINUTE(C105-B105)</f>
         <v>26</v>
       </c>
       <c r="G105" t="s">
@@ -2654,11 +2685,11 @@
         <v>44725.559027777781</v>
       </c>
       <c r="D106">
-        <f t="shared" ref="D106" si="110">HOUR(C106-B106)</f>
+        <f t="shared" ref="D106" si="112">HOUR(C106-B106)</f>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" ref="E106" si="111">MINUTE(C106-B106)</f>
+        <f t="shared" ref="E106" si="113">MINUTE(C106-B106)</f>
         <v>25</v>
       </c>
       <c r="G106" t="s">
@@ -2676,11 +2707,11 @@
         <v>44725.600694444445</v>
       </c>
       <c r="D107">
-        <f t="shared" ref="D107" si="112">HOUR(C107-B107)</f>
+        <f t="shared" ref="D107" si="114">HOUR(C107-B107)</f>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" ref="E107" si="113">MINUTE(C107-B107)</f>
+        <f t="shared" ref="E107" si="115">MINUTE(C107-B107)</f>
         <v>40</v>
       </c>
       <c r="G107" t="s">
@@ -2698,11 +2729,11 @@
         <v>44725.604166666664</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108" si="114">HOUR(C108-B108)</f>
+        <f t="shared" ref="D108" si="116">HOUR(C108-B108)</f>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" ref="E108" si="115">MINUTE(C108-B108)</f>
+        <f t="shared" ref="E108" si="117">MINUTE(C108-B108)</f>
         <v>5</v>
       </c>
       <c r="G108" t="s">
@@ -2723,11 +2754,11 @@
         <v>44725.635416666664</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="116">HOUR(C109-B109)</f>
+        <f t="shared" ref="D109" si="118">HOUR(C109-B109)</f>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" ref="E109" si="117">MINUTE(C109-B109)</f>
+        <f t="shared" ref="E109" si="119">MINUTE(C109-B109)</f>
         <v>30</v>
       </c>
       <c r="G109" t="s">
@@ -2742,11 +2773,11 @@
         <v>44725.638888310183</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="118">HOUR(C110-B110)</f>
+        <f t="shared" ref="D110" si="120">HOUR(C110-B110)</f>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="119">MINUTE(C110-B110)</f>
+        <f t="shared" ref="E110" si="121">MINUTE(C110-B110)</f>
         <v>5</v>
       </c>
       <c r="G110" t="s">
@@ -2767,11 +2798,11 @@
         <v>44725.642361111109</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111" si="120">HOUR(C111-B111)</f>
+        <f t="shared" ref="D111" si="122">HOUR(C111-B111)</f>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" ref="E111" si="121">MINUTE(C111-B111)</f>
+        <f t="shared" ref="E111" si="123">MINUTE(C111-B111)</f>
         <v>5</v>
       </c>
       <c r="G111" t="s">
@@ -2792,11 +2823,11 @@
         <v>44725.645833333336</v>
       </c>
       <c r="D112">
-        <f t="shared" ref="D112" si="122">HOUR(C112-B112)</f>
+        <f t="shared" ref="D112" si="124">HOUR(C112-B112)</f>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" ref="E112" si="123">MINUTE(C112-B112)</f>
+        <f t="shared" ref="E112" si="125">MINUTE(C112-B112)</f>
         <v>5</v>
       </c>
       <c r="G112" t="s">
@@ -2837,11 +2868,11 @@
         <v>44720.354166666664</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:D119" si="124">HOUR(C114-B114)</f>
+        <f t="shared" ref="D114:D119" si="126">HOUR(C114-B114)</f>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" ref="E114:E119" si="125">MINUTE(C114-B114)</f>
+        <f t="shared" ref="E114:E119" si="127">MINUTE(C114-B114)</f>
         <v>20</v>
       </c>
       <c r="G114" t="s">
@@ -2856,11 +2887,11 @@
         <v>44720.368055555555</v>
       </c>
       <c r="D115">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>20</v>
       </c>
       <c r="G115" t="s">
@@ -2878,11 +2909,11 @@
         <v>44720.392361111109</v>
       </c>
       <c r="D116">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>35</v>
       </c>
       <c r="G116" t="s">
@@ -2897,11 +2928,11 @@
         <v>44720.395445717593</v>
       </c>
       <c r="D117">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
       </c>
       <c r="G117" t="s">
@@ -2916,11 +2947,11 @@
         <v>44720.40625</v>
       </c>
       <c r="D118">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>10</v>
       </c>
       <c r="G118" t="s">
@@ -2935,11 +2966,11 @@
         <v>44720.434260185182</v>
       </c>
       <c r="D119">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>5</v>
       </c>
       <c r="G119" t="s">
@@ -3048,11 +3079,11 @@
         <v>44715.430555555555</v>
       </c>
       <c r="D124">
-        <f t="shared" ref="D124:D125" si="126">HOUR(C124-B124)</f>
+        <f t="shared" ref="D124:D125" si="128">HOUR(C124-B124)</f>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" ref="E124:E125" si="127">MINUTE(C124-B124)</f>
+        <f t="shared" ref="E124:E125" si="129">MINUTE(C124-B124)</f>
         <v>10</v>
       </c>
       <c r="G124" t="s">
@@ -3073,11 +3104,11 @@
         <v>44715.5</v>
       </c>
       <c r="D125">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>35</v>
       </c>
       <c r="G125" t="s">
@@ -3093,7 +3124,7 @@
     <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C126" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
     </row>
     <row r="127" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -3130,11 +3161,11 @@
         <v>44714.614583333336</v>
       </c>
       <c r="D128">
-        <f t="shared" ref="D128" si="128">HOUR(C128-B128)</f>
+        <f t="shared" ref="D128" si="130">HOUR(C128-B128)</f>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" ref="E128" si="129">MINUTE(C128-B128)</f>
+        <f t="shared" ref="E128" si="131">MINUTE(C128-B128)</f>
         <v>15</v>
       </c>
       <c r="G128" t="s">
@@ -3144,7 +3175,7 @@
     <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.58001273148</v>
+        <v>44886.590117708336</v>
       </c>
     </row>
   </sheetData>

--- a/ClientInformationRequests/ProjTracking/AD_ProjectTracking.xlsx
+++ b/ClientInformationRequests/ProjTracking/AD_ProjectTracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Common\Amazon Web Services Project\APPDEV Team\AutomationDesign\ClientInformationRequests\ProjRepo\ClientInformationRequests\ClientInformationRequests\ProjTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://massgov-my.sharepoint.com/personal/andrew_walker_mass_gov/Documents/HomeDrive/Projects/repos/ClientInformationRequests/ClientInformationRequests/ProjTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5274DDA-4E04-46FF-9900-1BA88BD91978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="17100" windowHeight="8510" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="1210" windowWidth="18770" windowHeight="9860" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dev't Tracking" sheetId="1" r:id="rId1"/>
@@ -672,11 +672,11 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
       <c r="B2" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -930,7 +930,7 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C29" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -1897,15 +1897,15 @@
       </c>
       <c r="C71" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="61"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>57</v>
@@ -2037,15 +2037,15 @@
       </c>
       <c r="C77" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
       <c r="D77">
         <f t="shared" ref="D77" ca="1" si="70">HOUR(C77-B77)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E77">
         <f t="shared" ref="E77" ca="1" si="71">MINUTE(C77-B77)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -3124,7 +3124,7 @@
     <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C126" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
     </row>
     <row r="127" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -3175,7 +3175,7 @@
     <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="4">
         <f ca="1">NOW()</f>
-        <v>44886.590117708336</v>
+        <v>45547.498554513892</v>
       </c>
     </row>
   </sheetData>
